--- a/Bitacora_Proyecto_Barrantes.xlsx
+++ b/Bitacora_Proyecto_Barrantes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10368" windowHeight="9792" activeTab="1"/>
+    <workbookView windowWidth="28128" windowHeight="12575"/>
   </bookViews>
   <sheets>
     <sheet name="Presentacion" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>Integrantes</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>jenifervilca@hotmail.com</t>
+  </si>
+  <si>
+    <t>retirada</t>
   </si>
   <si>
     <t>Najarro Albornoz</t>
@@ -157,9 +160,6 @@
   </si>
   <si>
     <t>Porque mandan el Script de la BD si se indico repetidas veces que se envien los archivos MDF y LDF?</t>
-  </si>
-  <si>
-    <t>listo</t>
   </si>
   <si>
     <t>El Script no corre envia el siguiente mensaje de error:</t>
@@ -186,11 +186,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,8 +215,132 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -226,99 +350,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -329,33 +361,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,28 +374,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -417,187 +402,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,17 +667,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -727,20 +715,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -782,7 +767,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -800,134 +785,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -948,10 +933,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -962,28 +947,33 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1561,13 +1551,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:D34"/>
+  <dimension ref="A3:E34"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:D13"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.4259259259259" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="11.4259259259259" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="16.8518518518519" style="1" customWidth="1"/>
     <col min="2" max="2" width="62.4259259259259" style="1" customWidth="1"/>
@@ -1613,18 +1603,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="15">
+    <row r="7" spans="1:5">
+      <c r="A7" s="18">
         <v>2</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="20" t="s">
         <v>10</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1632,13 +1625,13 @@
         <v>3</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="18" t="s">
         <v>13</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1646,13 +1639,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1660,177 +1653,177 @@
         <v>5</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="15.6" spans="1:4">
-      <c r="A12" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="20" t="s">
+      <c r="A12" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
+      <c r="B12" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
     </row>
     <row r="13" ht="15.6" spans="1:4">
-      <c r="A13" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="20" t="s">
+      <c r="A13" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
+      <c r="B13" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
     </row>
     <row r="16" ht="15.15"/>
     <row r="17" ht="18.75" spans="1:2">
-      <c r="A17" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="22"/>
+      <c r="A17" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="25"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="20">
+      <c r="A19" s="23">
         <v>1</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="20">
+      <c r="A20" s="23">
         <v>2</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="20">
+      <c r="A21" s="23">
         <v>3</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="23">
+      <c r="A22" s="26">
         <v>4</v>
       </c>
-      <c r="B22" s="23" t="s">
-        <v>30</v>
+      <c r="B22" s="26" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="20">
+      <c r="A23" s="23">
         <v>5</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C23" s="6"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="20">
+      <c r="A24" s="23">
         <v>6</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" ht="28.8" spans="1:2">
-      <c r="A25" s="20">
+      <c r="A25" s="23">
         <v>7</v>
       </c>
-      <c r="B25" s="24" t="s">
-        <v>33</v>
+      <c r="B25" s="27" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="23">
+      <c r="A26" s="26">
         <v>8</v>
       </c>
-      <c r="B26" s="23" t="s">
-        <v>34</v>
+      <c r="B26" s="26" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="20">
+      <c r="A27" s="23">
         <v>9</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="20">
+      <c r="A28" s="23">
         <v>10</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="20">
+      <c r="A29" s="23">
         <v>11</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="20">
+      <c r="A30" s="23">
         <v>12</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="20">
+      <c r="A31" s="23">
         <v>13</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="23">
+      <c r="A32" s="26">
         <v>14</v>
       </c>
-      <c r="B32" s="23" t="s">
-        <v>40</v>
+      <c r="B32" s="26" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="20">
+      <c r="A33" s="23">
         <v>15</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="23">
+      <c r="A34" s="26">
         <v>16</v>
       </c>
-      <c r="B34" s="23" t="s">
-        <v>42</v>
+      <c r="B34" s="26" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1858,8 +1851,8 @@
   <sheetPr/>
   <dimension ref="A5:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4259259259259" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1876,33 +1869,27 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="5">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="5">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -1998,10 +1985,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2033,10 +2020,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2067,7 +2054,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
